--- a/control_carga.xlsx
+++ b/control_carga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvdc\Unidad Personal\glorenzo\Documents\UiPath\carga_comprobantes_sigma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC823A-16F5-40FE-9AA4-88B40C2B8C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F065DCE-46F2-42D6-B336-6A71F5DCA400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,10 +393,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="125.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>

--- a/control_carga.xlsx
+++ b/control_carga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvdc\Unidad Personal\glorenzo\Documents\UiPath\carga_comprobantes_sigma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F065DCE-46F2-42D6-B336-6A71F5DCA400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A23A1D-C95A-4556-9150-17C6CFBAF677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Numero de Factura</t>
   </si>
@@ -34,6 +34,27 @@
   </si>
   <si>
     <t>Contabilizado</t>
+  </si>
+  <si>
+    <t>0305-00146402</t>
+  </si>
+  <si>
+    <t>693942.21</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>0305-00146401</t>
+  </si>
+  <si>
+    <t>0305-00146403</t>
+  </si>
+  <si>
+    <t>0305-00146404</t>
+  </si>
+  <si>
+    <t>1304531.88</t>
   </si>
 </sst>
 </file>
@@ -390,17 +411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C57"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="125.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -419,6 +436,50 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/control_carga.xlsx
+++ b/control_carga.xlsx
@@ -1,151 +1,239 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvdc\Unidad Personal\glorenzo\Documents\UiPath\carga_comprobantes_sigma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A23A1D-C95A-4556-9150-17C6CFBAF677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="control" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D301EEB-542B-4B7A-803A-E4120212D560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="control" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>Numero de Factura</t>
-  </si>
-  <si>
-    <t>Monto Neto</t>
-  </si>
-  <si>
-    <t>Contabilizado</t>
-  </si>
-  <si>
-    <t>0305-00146402</t>
-  </si>
-  <si>
-    <t>693942.21</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>0305-00146401</t>
-  </si>
-  <si>
-    <t>0305-00146403</t>
-  </si>
-  <si>
-    <t>0305-00146404</t>
-  </si>
-  <si>
-    <t>1304531.88</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <x:si>
+    <x:t>Numero de Factura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monto Neto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contabilizado</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3496742.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3671.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>520302.42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1196866.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36537.39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>221698.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92529.51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95619.97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5526.46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140941.33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>856403.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0859-00000174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2220418.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0861-00000082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>559665.86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0861-00000083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>647868.26</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-  </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </x:numFmts>
+  <x:fonts count="4" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="2">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,77 +498,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C9"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="B9" sqref="B9"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="81.765937" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="B7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>